--- a/Obsidian/Obsidian/Organização/Registro de Estudos.xlsx
+++ b/Obsidian/Obsidian/Organização/Registro de Estudos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{DAA3FE51-5C1E-44C5-9F81-9DAF28D36B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:11_{DAA3FE51-5C1E-44C5-9F81-9DAF28D36B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{993B2BE0-D635-4CF9-A15A-A13FAF2BB887}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Painel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>data</t>
   </si>
@@ -93,14 +93,23 @@
   <si>
     <t>Registro de Estudo</t>
   </si>
+  <si>
+    <t>Linguagem C</t>
+  </si>
+  <si>
+    <t>Flashcards</t>
+  </si>
+  <si>
+    <t>Reset e resolução geral</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -198,14 +207,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -233,6 +242,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -245,18 +260,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Data" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -266,7 +269,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="188">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -304,353 +307,11 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -668,854 +329,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1645,14 +458,14 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Registro de Despesa" pivot="0" count="4" xr9:uid="{7A9D9DD1-2DB1-4B81-8D98-CD2EB3220115}">
-      <tableStyleElement type="wholeTable" dxfId="187"/>
-      <tableStyleElement type="headerRow" dxfId="186"/>
-      <tableStyleElement type="firstRowStripe" dxfId="185"/>
-      <tableStyleElement type="secondRowStripe" dxfId="184"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
     <tableStyle name="Segmentação de dados de Despesa Pessoal" pivot="0" table="0" count="10" xr9:uid="{1EF308F5-E907-470E-A35B-6BF687215E5E}">
-      <tableStyleElement type="wholeTable" dxfId="183"/>
-      <tableStyleElement type="headerRow" dxfId="182"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1879,7 +692,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Calculadora de despesas1.xlsx]Dados de despesas pessoais!DadosDeDespesasPessoais</c:name>
+    <c:name>[Registro de Estudos.xlsx]Dados de despesas pessoais!DadosDeDespesasPessoais</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -3590,7 +2403,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="DadosDeDespesasPessoais" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="DadosDeDespesasPessoais" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="B3:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="14" showAll="0"/>
@@ -3625,7 +2438,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowItems count="1">
@@ -3643,22 +2456,22 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Soma de montante" fld="3" baseField="5" baseItem="3"/>
+    <dataField name="Soma de montante" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="10">
+    <format dxfId="4">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -3815,17 +2628,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Despesas" displayName="Despesas" ref="B2:F22" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Despesas" displayName="Despesas" ref="B2:F22" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B2:F22" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F22">
     <sortCondition ref="B2:B22"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="data" dataDxfId="179" dataCellStyle="Data"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="categoria" dataDxfId="178"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="subcategoria" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="montante" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="anotação" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="data" dataDxfId="9" dataCellStyle="Data"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="categoria" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="subcategoria" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="montante" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="anotação" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Registro de Despesa" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4133,41 +2946,41 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="74.5" customWidth="1"/>
-    <col min="7" max="7" width="2.59765625" customWidth="1"/>
+    <col min="7" max="7" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="272.10000000000002" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="272.10000000000002" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="I2" s="16"/>
+      <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="2:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+    <row r="3" spans="2:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="5"/>
     </row>
   </sheetData>
@@ -4215,32 +3028,32 @@
   <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="2.59765625" customWidth="1"/>
+    <col min="7" max="7" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:6" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4257,87 +3070,99 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="4"/>
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6">
+        <v>45673</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
-      <c r="E9" s="15"/>
+      <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
-      <c r="E10" s="15"/>
+      <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4384,54 +3209,49 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" customWidth="1"/>
-    <col min="2" max="2" width="25.3984375" customWidth="1"/>
-    <col min="3" max="3" width="28.3984375" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="72.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:4" ht="72.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4448,35 +3268,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4764,27 +3555,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875F98AC-0625-46A6-BBE0-25AEEE45449C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{819AC5C8-9683-4A59-BDAC-DC80AB833EFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ECF3041-04D0-47D0-B1ED-DBBADA1369A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4803,4 +3603,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{819AC5C8-9683-4A59-BDAC-DC80AB833EFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875F98AC-0625-46A6-BBE0-25AEEE45449C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>